--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_196.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_196.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,291 +488,313 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1402173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:21.440000', '0:00:24.060000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[('0:00:20.080000', '0:00:23.200000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:06.740000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:06.940000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:00:01.420000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -776,62 +803,67 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:46.220000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -839,92 +871,95 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(87.44, 110.44)]</t>
+          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -933,272 +968,212 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.58, 29.34)]</t>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(118.4, 121.72)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
